--- a/11-CollaborationList/2024-10-08-LhARA-list.xlsx
+++ b/11-CollaborationList/2024-10-08-LhARA-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A011A-C826-7C40-AB61-1D82C94058E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB019F-8AC7-CE47-9A35-54508AD3D825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="546">
   <si>
     <t>Title</t>
   </si>
@@ -755,9 +755,6 @@
   </si>
   <si>
     <t>Imperial College London, CRUK PPI group, Charing Cross Hospital, London W6 8RF</t>
-  </si>
-  <si>
-    <t>Public Involvement Advisor or just plain Member of the Public</t>
   </si>
   <si>
     <t>Emma</t>
@@ -1720,6 +1717,28 @@
   </si>
   <si>
     <t>08Oct24: need to add.</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>r.amos@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>R.Amos</t>
+  </si>
+  <si>
+    <t>??-USA</t>
+  </si>
+  <si>
+    <t>WPM WPA</t>
+  </si>
+  <si>
+    <t>08Oct24: refresh email sent.
+Public Involvement Advisor or just plain Member of the Public</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2257,6 +2276,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2303,7 +2335,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2327,9 +2359,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2363,6 +2392,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2480,28 +2515,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}" name="Table1" displayName="Table1" ref="A1:P85" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P85" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P85">
-    <sortCondition ref="G1:G85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}" name="Table1" displayName="Table1" ref="A1:P86" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:P86" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P86">
+    <sortCondition ref="G1:G86"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{737B9793-3401-7C4D-87AE-EEAD7B57BCC7}" name="Title" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{03137E78-45FB-B44B-8482-0B8AA1F52C44}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A5F12378-6670-C347-8013-0F2F41650159}" name="Surname" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{0A4865E7-FFCA-AF48-96A1-E1298D8A03E3}" name="Initials" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{6AA70C83-D916-284F-B016-0812EFF2600C}" name="email address" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F92E9356-55F5-0F46-A0E8-7684FDD3D01B}" name="Name on Publications " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{07A68EBE-898B-3540-8045-C94746C529DF}" name="Organisation" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{6EFF6114-BC0E-B849-8E1E-C9359C4226E5}" name="Address" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{78903F40-B886-9249-9C0E-FFE879A550EB}" name="Number of affiliations" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{8B1BF563-D956-C34F-B2BB-B18EBB859545}" name="Affiliation code" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{86A6AEA8-2AF7-6242-A045-EE44C352E738}" name="Affiliation address" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{E28A650D-5C68-7347-9908-6F2FFED91AAE}" name="Affiliation code2" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{97CD75B8-1381-5347-8E1F-7AED39B3C00D}" name="Affiliation address3" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{6EACD8A1-1336-FD4E-A400-3098BD1784DE}" name="ORCID " dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{2E69CF99-4872-2247-9B0B-ABE8233C4E4C}" name="Role" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{61605461-4984-5E42-94D2-819418ED61AF}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{737B9793-3401-7C4D-87AE-EEAD7B57BCC7}" name="Title" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{03137E78-45FB-B44B-8482-0B8AA1F52C44}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A5F12378-6670-C347-8013-0F2F41650159}" name="Surname" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0A4865E7-FFCA-AF48-96A1-E1298D8A03E3}" name="Initials" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6AA70C83-D916-284F-B016-0812EFF2600C}" name="email address" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F92E9356-55F5-0F46-A0E8-7684FDD3D01B}" name="Name on Publications " dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{07A68EBE-898B-3540-8045-C94746C529DF}" name="Organisation" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{6EFF6114-BC0E-B849-8E1E-C9359C4226E5}" name="Address" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{78903F40-B886-9249-9C0E-FFE879A550EB}" name="Number of affiliations" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{8B1BF563-D956-C34F-B2BB-B18EBB859545}" name="Affiliation code" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{86A6AEA8-2AF7-6242-A045-EE44C352E738}" name="Affiliation address" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{E28A650D-5C68-7347-9908-6F2FFED91AAE}" name="Affiliation code2" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{97CD75B8-1381-5347-8E1F-7AED39B3C00D}" name="Affiliation address3" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{6EACD8A1-1336-FD4E-A400-3098BD1784DE}" name="ORCID " dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{2E69CF99-4872-2247-9B0B-ABE8233C4E4C}" name="Role" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{61605461-4984-5E42-94D2-819418ED61AF}" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2804,13 +2839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
@@ -2889,75 +2924,75 @@
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="R2" s="19"/>
+        <v>536</v>
+      </c>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="R3" s="19"/>
+        <v>537</v>
+      </c>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2967,30 +3002,30 @@
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="R4" s="19"/>
+        <v>536</v>
+      </c>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3000,9 +3035,9 @@
         <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="R5" s="20"/>
+        <v>538</v>
+      </c>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3033,539 +3068,585 @@
         <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>539</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>540</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>541</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>542</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="J7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>447</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>448</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>449</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>450</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>451</v>
+        <v>160</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>261</v>
+        <v>448</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>322</v>
+        <v>449</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>323</v>
+        <v>450</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" s="20"/>
       <c r="O9" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>517</v>
+        <v>319</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>518</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>519</v>
+        <v>321</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>520</v>
+        <v>322</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>521</v>
+        <v>323</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>522</v>
+        <v>324</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>517</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>529</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>238</v>
+        <v>520</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>239</v>
+        <v>521</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>240</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>364</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>366</v>
+        <v>217</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>367</v>
+        <v>218</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>433</v>
+        <v>362</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>435</v>
+        <v>365</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P14" s="21" t="s">
         <v>536</v>
       </c>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="31" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>530</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>382</v>
+        <v>242</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="N17" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>464</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P18" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>460</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>340</v>
+        <v>462</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>341</v>
+        <v>463</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>430</v>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>424</v>
+        <v>336</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>423</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>424</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>425</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -3573,25 +3654,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>456</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>457</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>458</v>
+        <v>304</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -3602,87 +3683,87 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="1" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="25" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>342</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>491</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>153</v>
+        <v>492</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="N25" s="16"/>
+      <c r="O25" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3690,540 +3771,534 @@
     </row>
     <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>346</v>
+        <v>297</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>31</v>
+        <v>317</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>488</v>
+        <v>410</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>490</v>
+        <v>412</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>495</v>
+        <v>120</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>496</v>
+        <v>122</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>497</v>
+        <v>123</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>499</v>
+        <v>125</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>403</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>405</v>
+        <v>496</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="36" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="N37" s="1" t="s">
-        <v>134</v>
+      <c r="O37" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>185</v>
+      <c r="E38" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>524</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="N38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>223</v>
+        <v>27</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>224</v>
+        <v>523</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>186</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>439</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>440</v>
+        <v>221</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>442</v>
+        <v>222</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>443</v>
+        <v>224</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>444</v>
+        <v>186</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="N40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40" s="8"/>
     </row>
     <row r="41" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>438</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>439</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>440</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>114</v>
+        <v>441</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>115</v>
+        <v>442</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>443</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>118</v>
+        <v>445</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>116</v>
@@ -4235,42 +4310,42 @@
         <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>400</v>
+        <v>118</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>395</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>534</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4278,19 +4353,19 @@
         <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>21</v>
@@ -4301,28 +4376,31 @@
       <c r="I44" s="1">
         <v>0</v>
       </c>
+      <c r="N44" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O44" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>436</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>21</v>
@@ -4334,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4342,19 +4420,19 @@
         <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>510</v>
+        <v>432</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>511</v>
+        <v>436</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>21</v>
@@ -4364,6 +4442,9 @@
       </c>
       <c r="I46" s="1">
         <v>0</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4371,60 +4452,54 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>508</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>509</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>166</v>
+        <v>510</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>511</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -4433,63 +4508,62 @@
         <v>155</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>168</v>
@@ -4498,39 +4572,34 @@
         <v>169</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>168</v>
@@ -4539,86 +4608,95 @@
         <v>169</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I52" s="1">
-        <v>2</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>523</v>
+        <v>312</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>531</v>
+        <v>313</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -4626,54 +4704,51 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>532</v>
+        <v>326</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>376</v>
+        <v>531</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>168</v>
@@ -4685,36 +4760,30 @@
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>155</v>
+        <v>340</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>534</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>168</v>
@@ -4723,39 +4792,39 @@
         <v>175</v>
       </c>
       <c r="I56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>155</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>168</v>
@@ -4763,146 +4832,155 @@
       <c r="H57" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="I57" s="1">
+        <v>2</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>477</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>478</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>97</v>
+        <v>479</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>98</v>
+        <v>481</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>385</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>387</v>
+        <v>96</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="O59" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>452</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>454</v>
+        <v>385</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>100</v>
+        <v>388</v>
       </c>
       <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>207</v>
+        <v>451</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>208</v>
+        <v>452</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>209</v>
+        <v>453</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>210</v>
+        <v>454</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -4910,19 +4988,19 @@
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>452</v>
+        <v>207</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>500</v>
+        <v>208</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>501</v>
+        <v>209</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>502</v>
+        <v>210</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>211</v>
@@ -4932,6 +5010,9 @@
       </c>
       <c r="I62" s="1">
         <v>0</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -4939,19 +5020,19 @@
         <v>15</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>505</v>
+        <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>211</v>
@@ -4960,42 +5041,33 @@
         <v>212</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>502</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>70</v>
+        <v>503</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>71</v>
+        <v>504</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>72</v>
+        <v>505</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -5007,107 +5079,107 @@
         <v>77</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+    <row r="66" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B66" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="D66" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="15" t="s">
+      <c r="F66" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="G66" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="I66" s="13">
+        <v>1</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="K66" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="I65" s="14">
-        <v>1</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="K65" s="14" t="s">
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="O65" s="16"/>
-      <c r="P65" s="14"/>
-    </row>
-    <row r="66" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="O66" s="15"/>
+      <c r="P66" s="13"/>
     </row>
     <row r="67" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>528</v>
+      <c r="E67" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>107</v>
@@ -5122,229 +5194,235 @@
         <v>109</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>475</v>
+        <v>191</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>476</v>
+        <v>62</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>477</v>
+        <v>192</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>466</v>
+        <v>69</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>468</v>
+        <v>71</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>471</v>
+        <v>107</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>472</v>
+        <v>110</v>
       </c>
       <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>34</v>
+        <v>465</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>35</v>
+        <v>466</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>36</v>
+        <v>467</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>38</v>
+        <v>469</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>39</v>
+        <v>470</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>40</v>
+        <v>471</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="N71" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>179</v>
+        <v>113</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>181</v>
+      <c r="H72" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
-      <c r="N72" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="O72" s="7"/>
-    </row>
-    <row r="73" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O72" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>230</v>
+        <v>62</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>233</v>
+        <v>39</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="N73" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O73" s="7"/>
     </row>
     <row r="74" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>232</v>
@@ -5353,165 +5431,168 @@
         <v>233</v>
       </c>
       <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O75" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="76" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>250</v>
+        <v>62</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
+      <c r="N76" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I78" s="1">
-        <v>0</v>
+      <c r="O78" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>92</v>
@@ -5522,28 +5603,25 @@
       <c r="I79" s="1">
         <v>0</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>391</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>392</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>395</v>
+        <v>143</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>92</v>
@@ -5554,145 +5632,142 @@
       <c r="I80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="O80" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>527</v>
+        <v>392</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I81" s="1">
-        <v>1</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>197</v>
+      <c r="E82" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>353</v>
+        <v>81</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>355</v>
+        <v>199</v>
       </c>
       <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>534</v>
+        <v>0</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>483</v>
+        <v>50</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>485</v>
+        <v>18</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>357</v>
+      <c r="O84" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -5700,54 +5775,89 @@
         <v>33</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>536</v>
+    </row>
+    <row r="86" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E72" r:id="rId1" xr:uid="{249EAE20-EF4B-4353-9BDD-701C738070A1}"/>
-    <hyperlink ref="E39" r:id="rId2" xr:uid="{C5A0A689-7908-4EFA-AFBA-CA0689730743}"/>
-    <hyperlink ref="E75" r:id="rId3" xr:uid="{D1CDFB7A-6BEC-48FB-834C-8CB88E5F4016}"/>
-    <hyperlink ref="E59" r:id="rId4" xr:uid="{DF5D1539-1A7C-4613-9FF0-2DA1AF9DEF8A}"/>
-    <hyperlink ref="E37" r:id="rId5" xr:uid="{0FB9BB4C-CA10-4CCE-A735-F27061753B59}"/>
-    <hyperlink ref="E38" r:id="rId6" xr:uid="{83EB2AB8-A28E-3345-84F9-2F81AE882DEE}"/>
-    <hyperlink ref="E65" r:id="rId7" xr:uid="{32EBF51D-E743-46D4-8A67-637908371B66}"/>
-    <hyperlink ref="E81" r:id="rId8" xr:uid="{D5417B78-6A2B-2549-9C05-111AB744469E}"/>
-    <hyperlink ref="E67" r:id="rId9" xr:uid="{446814EC-9402-CA42-9669-6F09EE6F1BF6}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{86E75FC4-AC95-9549-81C2-3409075C9B4D}"/>
-    <hyperlink ref="E53" r:id="rId11" xr:uid="{C56B030F-609B-E841-A28A-5C4DADA2FD3C}"/>
-    <hyperlink ref="E83" r:id="rId12" xr:uid="{1D4237E7-2348-0D46-9BF3-92C9CAF89B80}"/>
-    <hyperlink ref="E58" r:id="rId13" xr:uid="{271F36D7-77A3-EA46-A99F-EF80FF74AD34}"/>
+    <hyperlink ref="E73" r:id="rId1" xr:uid="{249EAE20-EF4B-4353-9BDD-701C738070A1}"/>
+    <hyperlink ref="E40" r:id="rId2" xr:uid="{C5A0A689-7908-4EFA-AFBA-CA0689730743}"/>
+    <hyperlink ref="E76" r:id="rId3" xr:uid="{D1CDFB7A-6BEC-48FB-834C-8CB88E5F4016}"/>
+    <hyperlink ref="E60" r:id="rId4" xr:uid="{DF5D1539-1A7C-4613-9FF0-2DA1AF9DEF8A}"/>
+    <hyperlink ref="E38" r:id="rId5" xr:uid="{0FB9BB4C-CA10-4CCE-A735-F27061753B59}"/>
+    <hyperlink ref="E39" r:id="rId6" xr:uid="{83EB2AB8-A28E-3345-84F9-2F81AE882DEE}"/>
+    <hyperlink ref="E66" r:id="rId7" xr:uid="{32EBF51D-E743-46D4-8A67-637908371B66}"/>
+    <hyperlink ref="E82" r:id="rId8" xr:uid="{D5417B78-6A2B-2549-9C05-111AB744469E}"/>
+    <hyperlink ref="E68" r:id="rId9" xr:uid="{446814EC-9402-CA42-9669-6F09EE6F1BF6}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{86E75FC4-AC95-9549-81C2-3409075C9B4D}"/>
+    <hyperlink ref="E54" r:id="rId11" xr:uid="{C56B030F-609B-E841-A28A-5C4DADA2FD3C}"/>
+    <hyperlink ref="E84" r:id="rId12" xr:uid="{1D4237E7-2348-0D46-9BF3-92C9CAF89B80}"/>
+    <hyperlink ref="E59" r:id="rId13" xr:uid="{271F36D7-77A3-EA46-A99F-EF80FF74AD34}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -5757,9 +5867,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5909,26 +6022,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A185A5-328F-43C8-941B-4ACF0BBCA09C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5952,9 +6054,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A185A5-328F-43C8-941B-4ACF0BBCA09C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/11-CollaborationList/2024-10-08-LhARA-list.xlsx
+++ b/11-CollaborationList/2024-10-08-LhARA-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB019F-8AC7-CE47-9A35-54508AD3D825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE4ABFA-31D7-E244-91AC-E51CC4D69CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="549">
   <si>
     <t>Title</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>U. Oelfke</t>
   </si>
   <si>
-    <t>Head of the Joint Department of Physics</t>
-  </si>
-  <si>
     <t>O'Neill</t>
   </si>
   <si>
@@ -1739,6 +1736,19 @@
   <si>
     <t>08Oct24: refresh email sent.
 Public Involvement Advisor or just plain Member of the Public</t>
+  </si>
+  <si>
+    <t>08Oct24: refresh email sent.
+Head of the Joint Department of Physics</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Fernandez-Rodriguez</t>
+  </si>
+  <si>
+    <t>Need to add?; 08Oct24: refresh email sent.</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2345,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2392,9 +2402,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2515,28 +2522,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}" name="Table1" displayName="Table1" ref="A1:P86" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:P86" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P86">
-    <sortCondition ref="G1:G86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}" name="Table1" displayName="Table1" ref="A1:P87" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P87" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P87">
+    <sortCondition ref="G1:G87"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{737B9793-3401-7C4D-87AE-EEAD7B57BCC7}" name="Title" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{03137E78-45FB-B44B-8482-0B8AA1F52C44}" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{A5F12378-6670-C347-8013-0F2F41650159}" name="Surname" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{0A4865E7-FFCA-AF48-96A1-E1298D8A03E3}" name="Initials" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{6AA70C83-D916-284F-B016-0812EFF2600C}" name="email address" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F92E9356-55F5-0F46-A0E8-7684FDD3D01B}" name="Name on Publications " dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{07A68EBE-898B-3540-8045-C94746C529DF}" name="Organisation" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{6EFF6114-BC0E-B849-8E1E-C9359C4226E5}" name="Address" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{78903F40-B886-9249-9C0E-FFE879A550EB}" name="Number of affiliations" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{8B1BF563-D956-C34F-B2BB-B18EBB859545}" name="Affiliation code" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{86A6AEA8-2AF7-6242-A045-EE44C352E738}" name="Affiliation address" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{E28A650D-5C68-7347-9908-6F2FFED91AAE}" name="Affiliation code2" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{97CD75B8-1381-5347-8E1F-7AED39B3C00D}" name="Affiliation address3" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{6EACD8A1-1336-FD4E-A400-3098BD1784DE}" name="ORCID " dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{2E69CF99-4872-2247-9B0B-ABE8233C4E4C}" name="Role" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{61605461-4984-5E42-94D2-819418ED61AF}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{737B9793-3401-7C4D-87AE-EEAD7B57BCC7}" name="Title" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{03137E78-45FB-B44B-8482-0B8AA1F52C44}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A5F12378-6670-C347-8013-0F2F41650159}" name="Surname" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{0A4865E7-FFCA-AF48-96A1-E1298D8A03E3}" name="Initials" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{6AA70C83-D916-284F-B016-0812EFF2600C}" name="email address" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F92E9356-55F5-0F46-A0E8-7684FDD3D01B}" name="Name on Publications " dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{07A68EBE-898B-3540-8045-C94746C529DF}" name="Organisation" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{6EFF6114-BC0E-B849-8E1E-C9359C4226E5}" name="Address" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{78903F40-B886-9249-9C0E-FFE879A550EB}" name="Number of affiliations" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{8B1BF563-D956-C34F-B2BB-B18EBB859545}" name="Affiliation code" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{86A6AEA8-2AF7-6242-A045-EE44C352E738}" name="Affiliation address" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{E28A650D-5C68-7347-9908-6F2FFED91AAE}" name="Affiliation code2" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{97CD75B8-1381-5347-8E1F-7AED39B3C00D}" name="Affiliation address3" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{6EACD8A1-1336-FD4E-A400-3098BD1784DE}" name="ORCID " dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{2E69CF99-4872-2247-9B0B-ABE8233C4E4C}" name="Role" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{61605461-4984-5E42-94D2-819418ED61AF}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2839,13 +2846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
@@ -2948,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R2" s="18"/>
     </row>
@@ -2987,10 +2994,10 @@
         <v>272</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R3" s="18"/>
     </row>
@@ -3023,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R4" s="18"/>
     </row>
@@ -3035,7 +3042,7 @@
         <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="R5" s="19"/>
     </row>
@@ -3068,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R6" s="18"/>
     </row>
@@ -3080,19 +3087,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>51</v>
@@ -3104,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="R7" s="19"/>
     </row>
@@ -3149,7 +3156,7 @@
         <v>125</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R8" s="18"/>
     </row>
@@ -3158,19 +3165,19 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>85</v>
@@ -3181,12 +3188,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="20"/>
       <c r="O9" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R9" s="18"/>
     </row>
@@ -3219,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R10" s="18"/>
     </row>
@@ -3231,34 +3237,34 @@
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R11" s="18"/>
     </row>
@@ -3276,7 +3282,7 @@
         <v>236</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>237</v>
@@ -3291,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R12" s="18"/>
     </row>
@@ -3327,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>536</v>
+        <v>532</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>535</v>
       </c>
       <c r="R13" s="18"/>
     </row>
@@ -3363,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>536</v>
+        <v>532</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>535</v>
       </c>
       <c r="R14" s="18"/>
     </row>
@@ -3375,19 +3381,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>366</v>
@@ -3399,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>535</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>536</v>
       </c>
       <c r="R15" s="18"/>
     </row>
@@ -3438,10 +3444,14 @@
         <v>49</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="31" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" ht="31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -3455,7 +3465,7 @@
         <v>242</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>243</v>
@@ -3473,11 +3483,14 @@
         <v>245</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3506,42 +3519,47 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -3570,30 +3588,34 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P20" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>340</v>
@@ -3605,97 +3627,84 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>455</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>456</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>457</v>
+        <v>304</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
@@ -3707,115 +3716,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>342</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
+        <v>491</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>492</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="N26" s="16"/>
+      <c r="O26" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>155</v>
@@ -3824,516 +3833,510 @@
         <v>294</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>345</v>
+        <v>297</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>488</v>
+        <v>410</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="K32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>494</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>495</v>
+        <v>122</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>496</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>497</v>
+        <v>124</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>498</v>
+        <v>125</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>402</v>
+        <v>62</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>405</v>
+        <v>496</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="37" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="N38" s="1" t="s">
-        <v>134</v>
+      <c r="O38" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>185</v>
+      <c r="E39" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>523</v>
+        <v>131</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="N39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>223</v>
+        <v>27</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>224</v>
+        <v>522</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>186</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>438</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>439</v>
+        <v>221</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>441</v>
+        <v>222</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>442</v>
+        <v>224</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>443</v>
+        <v>186</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>444</v>
+        <v>225</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="N41" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41" s="8"/>
     </row>
     <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>438</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>439</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>114</v>
+        <v>440</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>115</v>
+        <v>441</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>116</v>
+        <v>442</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>117</v>
+        <v>443</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>395</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>116</v>
@@ -4345,42 +4348,42 @@
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>399</v>
+        <v>118</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>533</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4388,19 +4391,19 @@
         <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>21</v>
@@ -4411,28 +4414,31 @@
       <c r="I45" s="1">
         <v>0</v>
       </c>
+      <c r="N45" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O45" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>432</v>
+        <v>286</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>436</v>
+        <v>287</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>21</v>
@@ -4444,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4452,19 +4458,19 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>510</v>
+        <v>435</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>511</v>
+        <v>436</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>21</v>
@@ -4474,6 +4480,9 @@
       </c>
       <c r="I47" s="1">
         <v>0</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4481,60 +4490,54 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>166</v>
+        <v>509</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>167</v>
+        <v>510</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -4543,63 +4546,62 @@
         <v>155</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>168</v>
@@ -4608,39 +4610,34 @@
         <v>169</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>168</v>
@@ -4649,86 +4646,95 @@
         <v>169</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I53" s="1">
-        <v>2</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>522</v>
+        <v>312</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>530</v>
+        <v>313</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -4736,54 +4742,51 @@
         <v>68</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>531</v>
+        <v>326</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>168</v>
@@ -4795,36 +4798,30 @@
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>155</v>
+        <v>340</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>533</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>168</v>
@@ -4833,39 +4830,39 @@
         <v>175</v>
       </c>
       <c r="I57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>155</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>168</v>
@@ -4873,146 +4870,155 @@
       <c r="H58" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="I58" s="1">
+        <v>2</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="59" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>477</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>97</v>
+        <v>478</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>98</v>
+        <v>480</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>386</v>
+        <v>96</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>387</v>
+        <v>98</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>388</v>
+        <v>100</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="O60" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>453</v>
+        <v>384</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>207</v>
+        <v>450</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>210</v>
+        <v>453</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -5020,19 +5026,19 @@
         <v>15</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>451</v>
+        <v>207</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>499</v>
+        <v>208</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>501</v>
+        <v>210</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>211</v>
@@ -5042,6 +5048,9 @@
       </c>
       <c r="I63" s="1">
         <v>0</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -5049,19 +5058,19 @@
         <v>15</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>504</v>
+        <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>211</v>
@@ -5070,42 +5079,33 @@
         <v>212</v>
       </c>
       <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>501</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>502</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>503</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>72</v>
+        <v>504</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>73</v>
+        <v>505</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -5117,107 +5117,107 @@
         <v>77</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+    <row r="67" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E67" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F67" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G67" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I67" s="13">
+        <v>1</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="I66" s="13">
-        <v>1</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="K66" s="13" t="s">
+      <c r="K67" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="15" t="s">
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="O66" s="15"/>
-      <c r="P66" s="13"/>
-    </row>
-    <row r="67" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="O67" s="15"/>
+      <c r="P67" s="13"/>
     </row>
     <row r="68" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>527</v>
+      <c r="E68" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>107</v>
@@ -5232,229 +5232,235 @@
         <v>109</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>474</v>
+        <v>191</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>475</v>
+        <v>62</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>476</v>
+        <v>192</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>465</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>467</v>
+        <v>71</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>471</v>
+        <v>110</v>
       </c>
       <c r="I70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>34</v>
+        <v>464</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>465</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>36</v>
+        <v>466</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>37</v>
+        <v>467</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>39</v>
+        <v>469</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="N72" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>179</v>
+        <v>113</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>181</v>
+      <c r="H73" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
-      <c r="N73" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="O73" s="7"/>
-    </row>
-    <row r="74" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O73" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>230</v>
+        <v>62</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>233</v>
+        <v>39</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="N74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>358</v>
+        <v>228</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>359</v>
+        <v>230</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>232</v>
@@ -5463,98 +5469,101 @@
         <v>233</v>
       </c>
       <c r="I75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O76" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="77" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>249</v>
+        <v>62</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
+      <c r="N77" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>251</v>
@@ -5563,65 +5572,65 @@
         <v>252</v>
       </c>
       <c r="I78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O78" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0</v>
+      <c r="O79" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>92</v>
@@ -5632,28 +5641,25 @@
       <c r="I80" s="1">
         <v>0</v>
       </c>
-      <c r="O80" s="1" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>393</v>
+        <v>142</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>394</v>
+        <v>143</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>92</v>
@@ -5664,130 +5670,124 @@
       <c r="I81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="O81" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>526</v>
+        <v>391</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>197</v>
+      <c r="E83" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>352</v>
+        <v>81</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="I84" s="1">
-        <v>1</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>533</v>
+        <v>0</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>482</v>
+        <v>50</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>483</v>
+        <v>351</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>484</v>
+        <v>18</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>485</v>
+        <v>353</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>83</v>
@@ -5803,6 +5803,9 @@
       </c>
       <c r="K85" s="1" t="s">
         <v>356</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -5810,19 +5813,19 @@
         <v>33</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>83</v>
@@ -5839,25 +5842,60 @@
       <c r="K86" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>535</v>
+    </row>
+    <row r="87" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E73" r:id="rId1" xr:uid="{249EAE20-EF4B-4353-9BDD-701C738070A1}"/>
-    <hyperlink ref="E40" r:id="rId2" xr:uid="{C5A0A689-7908-4EFA-AFBA-CA0689730743}"/>
-    <hyperlink ref="E76" r:id="rId3" xr:uid="{D1CDFB7A-6BEC-48FB-834C-8CB88E5F4016}"/>
-    <hyperlink ref="E60" r:id="rId4" xr:uid="{DF5D1539-1A7C-4613-9FF0-2DA1AF9DEF8A}"/>
-    <hyperlink ref="E38" r:id="rId5" xr:uid="{0FB9BB4C-CA10-4CCE-A735-F27061753B59}"/>
-    <hyperlink ref="E39" r:id="rId6" xr:uid="{83EB2AB8-A28E-3345-84F9-2F81AE882DEE}"/>
-    <hyperlink ref="E66" r:id="rId7" xr:uid="{32EBF51D-E743-46D4-8A67-637908371B66}"/>
-    <hyperlink ref="E82" r:id="rId8" xr:uid="{D5417B78-6A2B-2549-9C05-111AB744469E}"/>
-    <hyperlink ref="E68" r:id="rId9" xr:uid="{446814EC-9402-CA42-9669-6F09EE6F1BF6}"/>
+    <hyperlink ref="E74" r:id="rId1" xr:uid="{249EAE20-EF4B-4353-9BDD-701C738070A1}"/>
+    <hyperlink ref="E41" r:id="rId2" xr:uid="{C5A0A689-7908-4EFA-AFBA-CA0689730743}"/>
+    <hyperlink ref="E77" r:id="rId3" xr:uid="{D1CDFB7A-6BEC-48FB-834C-8CB88E5F4016}"/>
+    <hyperlink ref="E61" r:id="rId4" xr:uid="{DF5D1539-1A7C-4613-9FF0-2DA1AF9DEF8A}"/>
+    <hyperlink ref="E39" r:id="rId5" xr:uid="{0FB9BB4C-CA10-4CCE-A735-F27061753B59}"/>
+    <hyperlink ref="E40" r:id="rId6" xr:uid="{83EB2AB8-A28E-3345-84F9-2F81AE882DEE}"/>
+    <hyperlink ref="E67" r:id="rId7" xr:uid="{32EBF51D-E743-46D4-8A67-637908371B66}"/>
+    <hyperlink ref="E83" r:id="rId8" xr:uid="{D5417B78-6A2B-2549-9C05-111AB744469E}"/>
+    <hyperlink ref="E69" r:id="rId9" xr:uid="{446814EC-9402-CA42-9669-6F09EE6F1BF6}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{86E75FC4-AC95-9549-81C2-3409075C9B4D}"/>
-    <hyperlink ref="E54" r:id="rId11" xr:uid="{C56B030F-609B-E841-A28A-5C4DADA2FD3C}"/>
-    <hyperlink ref="E84" r:id="rId12" xr:uid="{1D4237E7-2348-0D46-9BF3-92C9CAF89B80}"/>
-    <hyperlink ref="E59" r:id="rId13" xr:uid="{271F36D7-77A3-EA46-A99F-EF80FF74AD34}"/>
+    <hyperlink ref="E55" r:id="rId11" xr:uid="{C56B030F-609B-E841-A28A-5C4DADA2FD3C}"/>
+    <hyperlink ref="E85" r:id="rId12" xr:uid="{1D4237E7-2348-0D46-9BF3-92C9CAF89B80}"/>
+    <hyperlink ref="E60" r:id="rId13" xr:uid="{271F36D7-77A3-EA46-A99F-EF80FF74AD34}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/11-CollaborationList/2024-10-08-LhARA-list.xlsx
+++ b/11-CollaborationList/2024-10-08-LhARA-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE4ABFA-31D7-E244-91AC-E51CC4D69CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0A4522-1658-9743-98D4-7905931C9986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38420" yWindow="0" windowWidth="38380" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-07-03-LhARA-list" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="553">
   <si>
     <t>Title</t>
   </si>
@@ -97,9 +97,6 @@
     <t>P. Allport</t>
   </si>
   <si>
-    <t>Phys-Brm</t>
-  </si>
-  <si>
     <t>School of Physics and Astronomy, University of Birmingham, Edgbaston, Birmingham, B15 2TT, UK</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>ISIS Neutron and Muon Source, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
   </si>
   <si>
-    <t>Happy to be included but havent contributed</t>
-  </si>
-  <si>
     <t>Dr</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>W. Bertsche</t>
   </si>
   <si>
-    <t>Phys-Manch</t>
-  </si>
-  <si>
     <t>Department of Physics and Astronomy, The University of Manchester, Oxford Rd, Manchester, M13 9PL, UK</t>
   </si>
   <si>
@@ -649,9 +640,6 @@
     <t>S. Green</t>
   </si>
   <si>
-    <t>MedPhys-Brm</t>
-  </si>
-  <si>
     <t>Department of Medical Physics, University Hospital Birmingham Foundation NHS Trust, Edgbaston, Birmingham, B15 2TH</t>
   </si>
   <si>
@@ -665,9 +653,6 @@
   </si>
   <si>
     <t>T. Greenshaw</t>
-  </si>
-  <si>
-    <t>Phys-Liv</t>
   </si>
   <si>
     <t>Department of Physics, University of Liverpool, Liverpool L69 7ZE, UK</t>
@@ -1313,9 +1298,6 @@
     <t xml:space="preserve">J. L. Parsons </t>
   </si>
   <si>
-    <t>Liv-DMCCM</t>
-  </si>
-  <si>
     <t>Department of Molecular and Clinical Cancer Medicine, University of Liverpool, Liverpool, L3 9TA, UK</t>
   </si>
   <si>
@@ -1347,9 +1329,6 @@
   </si>
   <si>
     <t>H. Poptani</t>
-  </si>
-  <si>
-    <t>Liv-ISMIB</t>
   </si>
   <si>
     <t>Institute of Systems, Molecular and Integrative Biology, University of Liverpool, Biosciences Building, Crown Street, Liverpool L69 7BE</t>
@@ -1728,9 +1707,6 @@
     <t>R.Amos</t>
   </si>
   <si>
-    <t>??-USA</t>
-  </si>
-  <si>
     <t>WPM WPA</t>
   </si>
   <si>
@@ -1749,6 +1725,42 @@
   </si>
   <si>
     <t>Need to add?; 08Oct24: refresh email sent.</t>
+  </si>
+  <si>
+    <t>The John Adams Institute for Accelerator Science, Imperial College London, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>Brm:MedPhys-Brm</t>
+  </si>
+  <si>
+    <t>Brm:MedPhys-Brm, Liv-DMCCM</t>
+  </si>
+  <si>
+    <t>Brm:Phys-Brm</t>
+  </si>
+  <si>
+    <t>ICL:??-USA</t>
+  </si>
+  <si>
+    <t>Liv:Phys-Liv</t>
+  </si>
+  <si>
+    <t>Liv:Liv-ISMIB</t>
+  </si>
+  <si>
+    <t>Man:Phys-Manch</t>
+  </si>
+  <si>
+    <t>08Oct24: refresh email sent.  Failed to get thriough.  Emailed Hampton via their www site.</t>
+  </si>
+  <si>
+    <t>Jamison</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1968,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2148,8 +2160,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2266,28 +2290,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF8EA9DB"/>
       </right>
@@ -2345,15 +2347,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
@@ -2392,19 +2391,40 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2453,7 +2473,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2522,28 +2545,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}" name="Table1" displayName="Table1" ref="A1:P87" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P87" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P87">
-    <sortCondition ref="G1:G87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}" name="Table1" displayName="Table1" ref="A1:Q88" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q88" xr:uid="{69C39425-8FEC-5B4B-8EC1-E12B4427444B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P88">
+    <sortCondition ref="G1:G88"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{737B9793-3401-7C4D-87AE-EEAD7B57BCC7}" name="Title" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{03137E78-45FB-B44B-8482-0B8AA1F52C44}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A5F12378-6670-C347-8013-0F2F41650159}" name="Surname" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{0A4865E7-FFCA-AF48-96A1-E1298D8A03E3}" name="Initials" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{6AA70C83-D916-284F-B016-0812EFF2600C}" name="email address" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F92E9356-55F5-0F46-A0E8-7684FDD3D01B}" name="Name on Publications " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{07A68EBE-898B-3540-8045-C94746C529DF}" name="Organisation" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{6EFF6114-BC0E-B849-8E1E-C9359C4226E5}" name="Address" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{78903F40-B886-9249-9C0E-FFE879A550EB}" name="Number of affiliations" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{8B1BF563-D956-C34F-B2BB-B18EBB859545}" name="Affiliation code" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{86A6AEA8-2AF7-6242-A045-EE44C352E738}" name="Affiliation address" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{E28A650D-5C68-7347-9908-6F2FFED91AAE}" name="Affiliation code2" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{97CD75B8-1381-5347-8E1F-7AED39B3C00D}" name="Affiliation address3" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{6EACD8A1-1336-FD4E-A400-3098BD1784DE}" name="ORCID " dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{2E69CF99-4872-2247-9B0B-ABE8233C4E4C}" name="Role" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{61605461-4984-5E42-94D2-819418ED61AF}" name="Notes" dataDxfId="0"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{737B9793-3401-7C4D-87AE-EEAD7B57BCC7}" name="Title" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{03137E78-45FB-B44B-8482-0B8AA1F52C44}" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A5F12378-6670-C347-8013-0F2F41650159}" name="Surname" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0A4865E7-FFCA-AF48-96A1-E1298D8A03E3}" name="Initials" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{6AA70C83-D916-284F-B016-0812EFF2600C}" name="email address" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F92E9356-55F5-0F46-A0E8-7684FDD3D01B}" name="Name on Publications " dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{07A68EBE-898B-3540-8045-C94746C529DF}" name="Organisation" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{6EFF6114-BC0E-B849-8E1E-C9359C4226E5}" name="Address" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{78903F40-B886-9249-9C0E-FFE879A550EB}" name="Number of affiliations" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{8B1BF563-D956-C34F-B2BB-B18EBB859545}" name="Affiliation code" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{86A6AEA8-2AF7-6242-A045-EE44C352E738}" name="Affiliation address" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{E28A650D-5C68-7347-9908-6F2FFED91AAE}" name="Affiliation code2" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{97CD75B8-1381-5347-8E1F-7AED39B3C00D}" name="Affiliation address3" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{6EACD8A1-1336-FD4E-A400-3098BD1784DE}" name="ORCID " dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{2E69CF99-4872-2247-9B0B-ABE8233C4E4C}" name="Role" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{61605461-4984-5E42-94D2-819418ED61AF}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{CC4153CD-7396-6749-9712-9E8E04B741B2}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2846,13 +2870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2876,7 +2900,7 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2920,925 +2944,993 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="P5" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>538</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>539</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>541</v>
+        <v>201</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>542</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>394</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>396</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>161</v>
+        <v>543</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>162</v>
+        <v>399</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>544</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O9" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>323</v>
+        <v>544</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>515</v>
+        <v>427</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>517</v>
+        <v>428</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>520</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>501</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>527</v>
+        <v>224</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>237</v>
+        <v>503</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>238</v>
+        <v>544</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="P12" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>532</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>361</v>
+        <v>438</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>362</v>
+        <v>439</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>363</v>
+        <v>440</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>433</v>
+        <v>317</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>508</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>509</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>510</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>511</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>512</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>513</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" ht="31" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>528</v>
+        <v>231</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R17" s="18"/>
-    </row>
-    <row r="18" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>378</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>381</v>
+        <v>211</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>462</v>
+        <v>361</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>422</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>425</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>426</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>429</v>
+        <v>47</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" ht="31" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>546</v>
+        <v>235</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>375</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>376</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="P23" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>302</v>
+        <v>452</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>303</v>
+        <v>453</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>455</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>305</v>
+        <v>456</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="O24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>454</v>
+        <v>332</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>455</v>
+        <v>333</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>456</v>
+        <v>334</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="P28" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>295</v>
@@ -3847,1479 +3939,1590 @@
         <v>296</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I29" s="1">
+      <c r="O32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="J34" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="P35" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q35" s="15"/>
+    </row>
+    <row r="36" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>412</v>
+        <v>284</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>413</v>
+        <v>285</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="P36" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>478</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>56</v>
+        <v>481</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="K37" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q38" s="15"/>
+    </row>
+    <row r="39" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>486</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>130</v>
+        <v>60</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>131</v>
+        <v>488</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>132</v>
+        <v>489</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="N39" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="P39" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q39" s="15"/>
+    </row>
+    <row r="40" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>407</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>185</v>
+        <v>386</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>522</v>
+        <v>409</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>186</v>
+        <v>547</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>494</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>223</v>
+        <v>496</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>224</v>
+        <v>498</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>186</v>
+        <v>546</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="42" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>438</v>
+        <v>204</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>441</v>
+        <v>206</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>443</v>
+        <v>207</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="O42" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q42" s="15"/>
+    </row>
+    <row r="43" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>491</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>492</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>115</v>
+        <v>493</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>546</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="P43" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>394</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>396</v>
+        <v>70</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>397</v>
+        <v>71</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>116</v>
+        <v>548</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q44" s="15"/>
+    </row>
+    <row r="45" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O45" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>287</v>
+        <v>26</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="K46" s="5"/>
+      <c r="N46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q46" s="25"/>
+    </row>
+    <row r="47" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>434</v>
+        <v>180</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>431</v>
+        <v>181</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>435</v>
+        <v>26</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="P47" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>507</v>
+        <v>215</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>508</v>
+        <v>216</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>509</v>
+        <v>217</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>510</v>
+        <v>219</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N48" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>164</v>
+        <v>431</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>165</v>
+        <v>432</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>166</v>
+        <v>433</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>434</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>168</v>
+        <v>435</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="1:17" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q50" s="15"/>
+    </row>
+    <row r="51" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>254</v>
+        <v>390</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N51" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="P51" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q51" s="15"/>
+    </row>
+    <row r="52" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q52" s="15"/>
+    </row>
+    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P53" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q53" s="15"/>
+    </row>
+    <row r="54" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N54" s="18"/>
+      <c r="P54" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q54" s="15"/>
+    </row>
+    <row r="55" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q55" s="15"/>
+    </row>
+    <row r="56" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="G56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="N56" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="1">
-        <v>2</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O56" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P56" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q56" s="15"/>
+    </row>
+    <row r="57" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P57" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I58" s="1">
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="P58" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q58" s="15"/>
+    </row>
+    <row r="59" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>476</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>477</v>
+        <v>249</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>478</v>
+        <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>479</v>
+        <v>250</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>480</v>
+        <v>251</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="18"/>
+      <c r="P59" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q59" s="15"/>
+    </row>
+    <row r="60" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>97</v>
+        <v>303</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="18"/>
+      <c r="P60" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q60" s="15"/>
+    </row>
+    <row r="61" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>383</v>
+        <v>514</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>385</v>
+        <v>321</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>387</v>
+        <v>166</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="O61" s="10"/>
-    </row>
-    <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N61" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P61" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q61" s="15"/>
+    </row>
+    <row r="62" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
+        <v>471</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P62" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q62" s="15"/>
+    </row>
+    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P63" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q63" s="15"/>
+    </row>
+    <row r="64" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P64" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q64" s="15"/>
+    </row>
+    <row r="65" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I65" s="1">
+      <c r="N65" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="O65" s="9"/>
+      <c r="P65" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="G66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="G67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q67" s="15"/>
+    </row>
+    <row r="68" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I68" s="12">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="J68" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="I67" s="13">
-        <v>1</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="O67" s="15"/>
-      <c r="P67" s="13"/>
-    </row>
-    <row r="68" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O68" s="14"/>
+      <c r="P68" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q68" s="24"/>
+    </row>
+    <row r="69" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>526</v>
+        <v>60</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P69" s="18"/>
+    </row>
+    <row r="70" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P70" s="18"/>
+    </row>
+    <row r="71" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>467</v>
@@ -5328,574 +5531,610 @@
         <v>468</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="I71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="J72" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P72" s="18"/>
+    </row>
+    <row r="73" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="N73" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>181</v>
+        <v>37</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
-      <c r="N74" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="O74" s="7"/>
-    </row>
-    <row r="75" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O74" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>233</v>
+        <v>37</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>63</v>
+        <v>224</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
-      <c r="N77" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O77" s="7"/>
-    </row>
-    <row r="78" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O77" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>249</v>
+        <v>60</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N78" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="P79" s="18"/>
+    </row>
+    <row r="80" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>389</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>392</v>
+        <v>139</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>393</v>
+        <v>140</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="O82" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="4" t="s">
+      <c r="H84" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="P84" s="18"/>
+    </row>
+    <row r="85" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>50</v>
+        <v>474</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>351</v>
+        <v>475</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>352</v>
+        <v>210</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="P85" s="18"/>
+    </row>
+    <row r="86" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="P86" s="18"/>
+    </row>
+    <row r="87" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>511</v>
+        <v>76</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>513</v>
+        <v>78</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="I87" s="1">
         <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>534</v>
+        <v>83</v>
+      </c>
+      <c r="P87" s="18"/>
+    </row>
+    <row r="88" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E74" r:id="rId1" xr:uid="{249EAE20-EF4B-4353-9BDD-701C738070A1}"/>
-    <hyperlink ref="E41" r:id="rId2" xr:uid="{C5A0A689-7908-4EFA-AFBA-CA0689730743}"/>
-    <hyperlink ref="E77" r:id="rId3" xr:uid="{D1CDFB7A-6BEC-48FB-834C-8CB88E5F4016}"/>
-    <hyperlink ref="E61" r:id="rId4" xr:uid="{DF5D1539-1A7C-4613-9FF0-2DA1AF9DEF8A}"/>
-    <hyperlink ref="E39" r:id="rId5" xr:uid="{0FB9BB4C-CA10-4CCE-A735-F27061753B59}"/>
-    <hyperlink ref="E40" r:id="rId6" xr:uid="{83EB2AB8-A28E-3345-84F9-2F81AE882DEE}"/>
-    <hyperlink ref="E67" r:id="rId7" xr:uid="{32EBF51D-E743-46D4-8A67-637908371B66}"/>
-    <hyperlink ref="E83" r:id="rId8" xr:uid="{D5417B78-6A2B-2549-9C05-111AB744469E}"/>
-    <hyperlink ref="E69" r:id="rId9" xr:uid="{446814EC-9402-CA42-9669-6F09EE6F1BF6}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{86E75FC4-AC95-9549-81C2-3409075C9B4D}"/>
-    <hyperlink ref="E55" r:id="rId11" xr:uid="{C56B030F-609B-E841-A28A-5C4DADA2FD3C}"/>
-    <hyperlink ref="E85" r:id="rId12" xr:uid="{1D4237E7-2348-0D46-9BF3-92C9CAF89B80}"/>
-    <hyperlink ref="E60" r:id="rId13" xr:uid="{271F36D7-77A3-EA46-A99F-EF80FF74AD34}"/>
+    <hyperlink ref="E75" r:id="rId1" xr:uid="{249EAE20-EF4B-4353-9BDD-701C738070A1}"/>
+    <hyperlink ref="E48" r:id="rId2" xr:uid="{C5A0A689-7908-4EFA-AFBA-CA0689730743}"/>
+    <hyperlink ref="E78" r:id="rId3" xr:uid="{D1CDFB7A-6BEC-48FB-834C-8CB88E5F4016}"/>
+    <hyperlink ref="E65" r:id="rId4" xr:uid="{DF5D1539-1A7C-4613-9FF0-2DA1AF9DEF8A}"/>
+    <hyperlink ref="E46" r:id="rId5" xr:uid="{0FB9BB4C-CA10-4CCE-A735-F27061753B59}"/>
+    <hyperlink ref="E47" r:id="rId6" xr:uid="{83EB2AB8-A28E-3345-84F9-2F81AE882DEE}"/>
+    <hyperlink ref="E68" r:id="rId7" xr:uid="{32EBF51D-E743-46D4-8A67-637908371B66}"/>
+    <hyperlink ref="E87" r:id="rId8" xr:uid="{D5417B78-6A2B-2549-9C05-111AB744469E}"/>
+    <hyperlink ref="E70" r:id="rId9" xr:uid="{446814EC-9402-CA42-9669-6F09EE6F1BF6}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{86E75FC4-AC95-9549-81C2-3409075C9B4D}"/>
+    <hyperlink ref="E61" r:id="rId11" xr:uid="{C56B030F-609B-E841-A28A-5C4DADA2FD3C}"/>
+    <hyperlink ref="E84" r:id="rId12" xr:uid="{1D4237E7-2348-0D46-9BF3-92C9CAF89B80}"/>
+    <hyperlink ref="E63" r:id="rId13" xr:uid="{271F36D7-77A3-EA46-A99F-EF80FF74AD34}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -5905,12 +6144,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6060,15 +6296,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A185A5-328F-43C8-941B-4ACF0BBCA09C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6092,17 +6339,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A185A5-328F-43C8-941B-4ACF0BBCA09C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/11-CollaborationList/2024-10-08-LhARA-list.xlsx
+++ b/11-CollaborationList/2024-10-08-LhARA-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0A4522-1658-9743-98D4-7905931C9986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BBC8C0-BAE4-6949-961E-FED1F0842372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="0" windowWidth="38380" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-07-03-LhARA-list" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="556">
   <si>
     <t>Title</t>
   </si>
@@ -1761,6 +1761,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>08Oct24: move to CI</t>
+  </si>
+  <si>
+    <t>WPM WPB</t>
+  </si>
+  <si>
+    <t>WPM-WPB</t>
   </si>
 </sst>
 </file>
@@ -2347,7 +2356,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2400,23 +2409,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2873,10 +2870,10 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3095,7 +3092,7 @@
       <c r="O5" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="1" t="s">
         <v>530</v>
       </c>
       <c r="Q5" s="16"/>
@@ -3167,7 +3164,7 @@
       <c r="O7" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q7" s="15"/>
@@ -3209,7 +3206,7 @@
       <c r="O8" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q8" s="15"/>
@@ -3248,7 +3245,7 @@
       <c r="O9" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q9" s="15"/>
@@ -3284,7 +3281,7 @@
       <c r="O10" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q10" s="15"/>
@@ -3320,7 +3317,7 @@
       <c r="O11" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q11" s="15"/>
@@ -3353,7 +3350,7 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q12" s="15"/>
@@ -3392,7 +3389,7 @@
       <c r="K13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q13" s="15"/>
@@ -3428,7 +3425,7 @@
       <c r="O14" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q14" s="15"/>
@@ -3464,7 +3461,7 @@
       <c r="O15" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q15" s="15"/>
@@ -3500,7 +3497,7 @@
       <c r="O16" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="18" t="s">
         <v>528</v>
       </c>
       <c r="Q16" s="15"/>
@@ -3536,7 +3533,7 @@
       <c r="O17" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="19" t="s">
         <v>536</v>
       </c>
       <c r="Q17" s="15"/>
@@ -3572,7 +3569,7 @@
       <c r="O18" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q18" s="15"/>
@@ -3716,13 +3713,13 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="8" t="s">
         <v>240</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q22" s="15"/>
@@ -3755,7 +3752,7 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="1" t="s">
         <v>537</v>
       </c>
       <c r="Q23" s="15"/>
@@ -3890,7 +3887,7 @@
       <c r="G27" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="18" t="s">
         <v>540</v>
       </c>
       <c r="Q27" s="16"/>
@@ -4022,7 +4019,6 @@
       <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="18"/>
       <c r="O31" s="1" t="s">
         <v>525</v>
       </c>
@@ -4152,7 +4148,7 @@
       <c r="N34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q34" s="15"/>
@@ -4185,7 +4181,7 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="P35" s="19" t="s">
+      <c r="P35" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q35" s="15"/>
@@ -4218,7 +4214,7 @@
       <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="19" t="s">
+      <c r="P36" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q36" s="15"/>
@@ -4254,7 +4250,7 @@
       <c r="K37" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="P37" s="19" t="s">
+      <c r="P37" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q37" s="15"/>
@@ -4296,7 +4292,7 @@
       <c r="O38" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P38" s="19" t="s">
+      <c r="P38" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q38" s="15"/>
@@ -4329,7 +4325,7 @@
       <c r="I39" s="1">
         <v>0</v>
       </c>
-      <c r="P39" s="19" t="s">
+      <c r="P39" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q39" s="15"/>
@@ -4362,7 +4358,7 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
-      <c r="P40" s="19" t="s">
+      <c r="P40" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q40" s="15"/>
@@ -4404,7 +4400,7 @@
       <c r="N41" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="P41" s="19" t="s">
+      <c r="P41" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q41" s="15"/>
@@ -4440,7 +4436,7 @@
       <c r="O42" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P42" s="19" t="s">
+      <c r="P42" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q42" s="15"/>
@@ -4473,7 +4469,7 @@
       <c r="I43" s="1">
         <v>0</v>
       </c>
-      <c r="P43" s="19" t="s">
+      <c r="P43" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q43" s="15"/>
@@ -4515,7 +4511,7 @@
       <c r="N44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P44" s="19" t="s">
+      <c r="P44" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q44" s="15"/>
@@ -4551,7 +4547,7 @@
       <c r="O45" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P45" s="19" t="s">
+      <c r="P45" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q45" s="15"/>
@@ -4588,10 +4584,10 @@
       <c r="N46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P46" s="19" t="s">
+      <c r="P46" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="Q46" s="25"/>
+      <c r="Q46" s="21"/>
     </row>
     <row r="47" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -4630,7 +4626,7 @@
       <c r="O47" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="P47" s="19" t="s">
+      <c r="P47" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q47" s="15"/>
@@ -4667,7 +4663,7 @@
         <v>221</v>
       </c>
       <c r="O48" s="7"/>
-      <c r="P48" s="19" t="s">
+      <c r="P48" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q48" s="15"/>
@@ -4706,7 +4702,7 @@
       <c r="O49" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P49" s="19" t="s">
+      <c r="P49" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q49" s="15"/>
@@ -4743,13 +4739,13 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="18" t="s">
+      <c r="N50" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P50" s="19" t="s">
+      <c r="P50" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q50" s="15"/>
@@ -4782,10 +4778,10 @@
       <c r="I51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="18" t="s">
+      <c r="N51" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="P51" s="19" t="s">
+      <c r="P51" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q51" s="15"/>
@@ -4830,7 +4826,7 @@
       <c r="O52" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="P52" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q52" s="15"/>
@@ -4869,7 +4865,7 @@
       <c r="K53" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="P53" s="19" t="s">
+      <c r="P53" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q53" s="15"/>
@@ -4908,8 +4904,7 @@
       <c r="K54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N54" s="18"/>
-      <c r="P54" s="19" t="s">
+      <c r="P54" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q54" s="15"/>
@@ -4948,7 +4943,7 @@
       <c r="K55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P55" s="19" t="s">
+      <c r="P55" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q55" s="15"/>
@@ -4993,13 +4988,13 @@
       <c r="M56" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="1" t="s">
         <v>313</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="P56" s="19" t="s">
+      <c r="P56" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q56" s="15"/>
@@ -5044,7 +5039,7 @@
       <c r="O57" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P57" s="19" t="s">
+      <c r="P57" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q57" s="15"/>
@@ -5089,7 +5084,7 @@
       <c r="M58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P58" s="19" t="s">
+      <c r="P58" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q58" s="15"/>
@@ -5122,8 +5117,7 @@
       <c r="I59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="18"/>
-      <c r="P59" s="19" t="s">
+      <c r="P59" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q59" s="15"/>
@@ -5156,8 +5150,7 @@
       <c r="I60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="P60" s="19" t="s">
+      <c r="P60" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q60" s="15"/>
@@ -5193,7 +5186,7 @@
       <c r="N61" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P61" s="19" t="s">
+      <c r="P61" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q61" s="15"/>
@@ -5223,7 +5216,7 @@
       <c r="H62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="P62" s="19" t="s">
+      <c r="P62" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q62" s="15"/>
@@ -5265,7 +5258,7 @@
       <c r="N63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P63" s="19" t="s">
+      <c r="P63" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q63" s="15"/>
@@ -5307,7 +5300,7 @@
       <c r="O64" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="P64" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q64" s="15"/>
@@ -5344,7 +5337,7 @@
         <v>383</v>
       </c>
       <c r="O65" s="9"/>
-      <c r="P65" s="19" t="s">
+      <c r="P65" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q65" s="15"/>
@@ -5360,9 +5353,9 @@
       <c r="G66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="19" t="s">
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q66" s="15"/>
@@ -5378,9 +5371,9 @@
       <c r="G67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="19" t="s">
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="2" t="s">
         <v>528</v>
       </c>
       <c r="Q67" s="15"/>
@@ -5425,10 +5418,10 @@
         <v>330</v>
       </c>
       <c r="O68" s="14"/>
-      <c r="P68" s="23" t="s">
+      <c r="P68" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="Q68" s="24"/>
+      <c r="Q68" s="20"/>
     </row>
     <row r="69" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -5467,7 +5460,10 @@
       <c r="O69" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P69" s="18"/>
+      <c r="P69" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q69" s="20"/>
     </row>
     <row r="70" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -5509,7 +5505,10 @@
       <c r="O70" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P70" s="18"/>
+      <c r="P70" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -5539,6 +5538,13 @@
       <c r="I71" s="1">
         <v>0</v>
       </c>
+      <c r="O71" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -5577,7 +5583,10 @@
       <c r="O72" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P72" s="18"/>
+      <c r="P72" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q72" s="15"/>
     </row>
     <row r="73" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -5610,6 +5619,10 @@
       <c r="N73" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="P73" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -5642,6 +5655,10 @@
       <c r="O74" s="1" t="s">
         <v>525</v>
       </c>
+      <c r="P74" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -5675,6 +5692,10 @@
         <v>179</v>
       </c>
       <c r="O75" s="6"/>
+      <c r="P75" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5713,7 +5734,10 @@
       <c r="O76" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P76" s="18"/>
+      <c r="P76" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -5746,6 +5770,10 @@
       <c r="O77" s="1" t="s">
         <v>525</v>
       </c>
+      <c r="P77" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -5779,6 +5807,10 @@
         <v>65</v>
       </c>
       <c r="O78" s="6"/>
+      <c r="P78" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -5817,7 +5849,10 @@
       <c r="O79" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P79" s="18"/>
+      <c r="P79" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5847,8 +5882,12 @@
       <c r="I80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q80" s="15"/>
+    </row>
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
@@ -5876,8 +5915,12 @@
       <c r="I81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="P81" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q81" s="15"/>
+    </row>
+    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>15</v>
       </c>
@@ -5908,8 +5951,12 @@
       <c r="O82" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="P82" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q82" s="15"/>
+    </row>
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -5937,8 +5984,12 @@
       <c r="I83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P83" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q83" s="15"/>
+    </row>
+    <row r="84" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>15</v>
       </c>
@@ -5975,9 +6026,12 @@
       <c r="O84" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P84" s="18"/>
-    </row>
-    <row r="85" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P84" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q84" s="15"/>
+    </row>
+    <row r="85" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
@@ -6011,9 +6065,12 @@
       <c r="K85" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="P85" s="18"/>
-    </row>
-    <row r="86" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P85" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q85" s="15"/>
+    </row>
+    <row r="86" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -6050,9 +6107,12 @@
       <c r="O86" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="P86" s="18"/>
-    </row>
-    <row r="87" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P86" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q86" s="15"/>
+    </row>
+    <row r="87" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>15</v>
       </c>
@@ -6086,9 +6146,12 @@
       <c r="K87" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P87" s="18"/>
-    </row>
-    <row r="88" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="P87" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q87" s="15"/>
+    </row>
+    <row r="88" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>57</v>
       </c>
@@ -6119,6 +6182,13 @@
       <c r="N88" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="O88" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q88" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6144,12 +6214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085CA6C7F4A4AB74096FC0EC2FFBCDC1B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae49459f8d36ac24e5b40f725d622ad4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2c9d8e6-4447-41a5-9589-9fed66499f9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ac636e76d545aa2779bc08ab2e67d1b" ns2:_="">
     <xsd:import namespace="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
@@ -6295,6 +6359,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6305,22 +6375,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A185A5-328F-43C8-941B-4ACF0BBCA09C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA5C47C-E79B-4ED5-99E2-D9DF528E7178}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6338,6 +6392,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A185A5-328F-43C8-941B-4ACF0BBCA09C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
   <ds:schemaRefs>

--- a/11-CollaborationList/2024-10-08-LhARA-list.xlsx
+++ b/11-CollaborationList/2024-10-08-LhARA-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BBC8C0-BAE4-6949-961E-FED1F0842372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356F78C-1719-D342-AC1A-E8C35643B4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="557">
   <si>
     <t>Title</t>
   </si>
@@ -1770,6 +1770,9 @@
   </si>
   <si>
     <t>WPM-WPB</t>
+  </si>
+  <si>
+    <t>14Oct24 OK</t>
   </si>
 </sst>
 </file>
@@ -2870,10 +2873,10 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M76" sqref="M76"/>
+      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2981,7 +2984,9 @@
       <c r="P2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="15" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4295,7 +4300,9 @@
       <c r="P38" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="Q38" s="15"/>
+      <c r="Q38" s="15" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="39" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -6214,6 +6221,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085CA6C7F4A4AB74096FC0EC2FFBCDC1B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae49459f8d36ac24e5b40f725d622ad4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2c9d8e6-4447-41a5-9589-9fed66499f9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ac636e76d545aa2779bc08ab2e67d1b" ns2:_="">
     <xsd:import namespace="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
@@ -6359,35 +6381,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA5C47C-E79B-4ED5-99E2-D9DF528E7178}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6409,9 +6406,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D201AF0C-D84D-4646-898F-B45F73A20A95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA5C47C-E79B-4ED5-99E2-D9DF528E7178}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2c9d8e6-4447-41a5-9589-9fed66499f9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>